--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3293.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3293.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133207753672779</v>
+        <v>0.962739884853363</v>
       </c>
       <c r="B1">
-        <v>2.608102189291971</v>
+        <v>0.8480185866355896</v>
       </c>
       <c r="C1">
-        <v>3.469372427454302</v>
+        <v>3.721126079559326</v>
       </c>
       <c r="D1">
-        <v>2.871840235388281</v>
+        <v>2.844532012939453</v>
       </c>
       <c r="E1">
-        <v>1.10157959174096</v>
+        <v>1.29451322555542</v>
       </c>
     </row>
   </sheetData>
